--- a/UploadExcel/JournalUpload.xlsx
+++ b/UploadExcel/JournalUpload.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C07P</t>
+          <t>B12V</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
